--- a/data/zenodo/conversion/elec/CHE_convelec_onshorewind.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_onshorewind.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6ABEBB-8C6F-624B-A46F-A42A35574EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5D380-17F7-5842-92A6-96143B8F482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="77">
   <si>
     <t>Name:</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -682,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -788,16 +791,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -809,13 +809,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -830,13 +830,13 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -851,13 +851,13 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -872,26 +872,18 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -901,19 +893,25 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -923,25 +921,21 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -951,16 +945,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>145.5</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -972,16 +972,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
+        <v>145.5</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -996,28 +993,23 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>5.216605768</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1025,16 +1017,16 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>3979.5929270000001</v>
+        <v>5.216605768</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
@@ -1042,9 +1034,11 @@
       <c r="J17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1052,23 +1046,26 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3979.5929270000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1076,52 +1073,47 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
         <v>10</v>
       </c>
-      <c r="I19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -1150,7 +1142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1156,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -1179,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1185,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -1208,7 +1200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1214,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -1237,7 +1229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -1266,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1280,10 +1272,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
@@ -1295,7 +1287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1309,10 +1301,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1324,7 +1316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1338,10 +1330,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
@@ -1353,7 +1345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1367,10 +1359,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="s">
         <v>57</v>
@@ -1382,7 +1374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1396,10 +1388,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="s">
         <v>57</v>
@@ -1411,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1425,10 +1417,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
         <v>57</v>
@@ -1440,7 +1432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1454,10 +1446,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
         <v>57</v>
@@ -1483,10 +1475,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
@@ -1512,10 +1504,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="s">
         <v>57</v>
@@ -1541,10 +1533,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
@@ -1570,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>15.3</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -1599,10 +1591,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="H37" t="s">
         <v>57</v>
@@ -1628,10 +1620,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
@@ -1657,10 +1649,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>22.6</v>
+        <v>18.5</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
@@ -1686,10 +1678,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>36.6</v>
+        <v>22.6</v>
       </c>
       <c r="H40" t="s">
         <v>57</v>
@@ -1715,10 +1707,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>70.099999999999994</v>
+        <v>36.6</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
@@ -1744,10 +1736,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>88.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H42" t="s">
         <v>57</v>
@@ -1773,10 +1765,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>89.5</v>
+        <v>88.1</v>
       </c>
       <c r="H43" t="s">
         <v>57</v>
@@ -1802,10 +1794,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>100.9</v>
+        <v>89.5</v>
       </c>
       <c r="H44" t="s">
         <v>57</v>
@@ -1831,10 +1823,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>110</v>
+        <v>100.9</v>
       </c>
       <c r="H45" t="s">
         <v>57</v>
@@ -1860,10 +1852,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>108.6</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
         <v>57</v>
@@ -1889,10 +1881,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>132.6</v>
+        <v>108.6</v>
       </c>
       <c r="H47" t="s">
         <v>57</v>
@@ -1918,10 +1910,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>121.8</v>
+        <v>132.6</v>
       </c>
       <c r="H48" t="s">
         <v>57</v>
@@ -1947,10 +1939,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>145.9</v>
+        <v>121.8</v>
       </c>
       <c r="H49" t="s">
         <v>57</v>
@@ -1970,19 +1962,19 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>0.1</v>
+        <v>145.9</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
@@ -2005,7 +1997,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>0.1</v>
@@ -2034,7 +2026,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>0.1</v>
@@ -2063,7 +2055,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>0.1</v>
@@ -2092,7 +2084,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>0.1</v>
@@ -2121,7 +2113,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
         <v>0.1</v>
@@ -2150,10 +2142,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -2179,10 +2171,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>55</v>
@@ -2208,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="s">
         <v>55</v>
@@ -2237,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
         <v>2.8</v>
@@ -2266,7 +2258,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
         <v>2.8</v>
@@ -2295,10 +2287,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="s">
         <v>55</v>
@@ -2324,10 +2316,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="s">
         <v>55</v>
@@ -2353,10 +2345,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H63" t="s">
         <v>55</v>
@@ -2382,10 +2374,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>8.6999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="H64" t="s">
         <v>55</v>
@@ -2397,7 +2389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2411,10 +2403,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>11.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H65" t="s">
         <v>55</v>
@@ -2426,7 +2418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2440,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
         <v>11.6</v>
@@ -2455,7 +2447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
         <v>11.6</v>
@@ -2484,7 +2476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2498,10 +2490,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="H68" t="s">
         <v>55</v>
@@ -2513,7 +2505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2527,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>17.600000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="H69" t="s">
         <v>55</v>
@@ -2542,7 +2534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2556,10 +2548,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>42.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2571,7 +2563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2585,10 +2577,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>45.5</v>
+        <v>42.3</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -2600,7 +2592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2614,10 +2606,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>49.4</v>
+        <v>45.5</v>
       </c>
       <c r="H72" t="s">
         <v>55</v>
@@ -2629,7 +2621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2643,10 +2635,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>60.3</v>
+        <v>49.4</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
@@ -2658,7 +2650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2672,7 +2664,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
         <v>60.3</v>
@@ -2687,7 +2679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2693,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
         <v>60.3</v>
@@ -2716,7 +2708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2730,10 +2722,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>75.400000000000006</v>
+        <v>60.3</v>
       </c>
       <c r="H76" t="s">
         <v>55</v>
@@ -2745,7 +2737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +2751,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
         <v>75.400000000000006</v>
@@ -2774,7 +2766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2780,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
         <v>75.400000000000006</v>
@@ -2803,7 +2795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2809,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
         <v>75.400000000000006</v>
@@ -2832,7 +2824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2840,16 +2832,16 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -2859,9 +2851,6 @@
       </c>
       <c r="J80" t="s">
         <v>58</v>
-      </c>
-      <c r="L80" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2878,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2910,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2942,7 +2931,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2974,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3006,7 +2995,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3038,10 +3027,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3070,10 +3059,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -3102,10 +3091,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3134,10 +3123,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3166,7 +3155,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3198,10 +3187,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -3230,10 +3219,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -3262,10 +3251,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -3294,10 +3283,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="H94" t="s">
         <v>55</v>
@@ -3326,10 +3315,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="s">
         <v>55</v>
@@ -3358,10 +3347,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="s">
         <v>55</v>
@@ -3390,7 +3379,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3422,10 +3411,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>55</v>
@@ -3454,10 +3443,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3486,10 +3475,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>24.7</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3518,10 +3507,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>3.2</v>
+        <v>24.7</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3550,10 +3539,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -3582,10 +3571,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>10.9</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -3614,10 +3603,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -3646,7 +3635,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3678,10 +3667,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
         <v>55</v>
@@ -3710,10 +3699,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="H107" t="s">
         <v>55</v>
@@ -3742,7 +3731,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3774,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3800,13 +3789,13 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3838,7 +3827,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3870,7 +3859,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3902,7 +3891,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3934,7 +3923,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3966,7 +3955,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3998,7 +3987,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4030,7 +4019,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4062,7 +4051,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4094,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4126,7 +4115,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4158,7 +4147,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4190,7 +4179,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4222,7 +4211,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4254,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4286,7 +4275,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4318,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4350,7 +4339,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4382,7 +4371,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4414,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4446,7 +4435,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4478,7 +4467,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4510,7 +4499,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4542,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4574,7 +4563,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4606,7 +4595,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4638,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4670,7 +4659,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4702,7 +4691,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4734,7 +4723,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4760,16 +4749,28 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>55</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
+      </c>
+      <c r="J140" t="s">
+        <v>58</v>
+      </c>
+      <c r="L140" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4786,7 +4787,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4806,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4826,7 +4827,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4846,7 +4847,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4866,7 +4867,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4886,7 +4887,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4906,7 +4907,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4926,7 +4927,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4946,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4966,7 +4967,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4986,7 +4987,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -5006,7 +5007,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -5026,7 +5027,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -5046,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -5066,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -5086,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5106,7 +5107,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5126,7 +5127,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5146,7 +5147,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5166,7 +5167,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5186,7 +5187,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5206,7 +5207,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5226,7 +5227,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5246,7 +5247,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5266,7 +5267,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5286,7 +5287,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5306,7 +5307,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5326,19 +5327,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>50</v>
-      </c>
-      <c r="H168" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
-      </c>
-      <c r="J168" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5355,10 +5347,19 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>50</v>
+      </c>
+      <c r="H169" t="s">
+        <v>60</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
+      </c>
+      <c r="J169" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,28 +5370,16 @@
         <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
-      </c>
-      <c r="G170">
-        <v>4531.9508130000004</v>
-      </c>
-      <c r="H170" t="s">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
-      </c>
-      <c r="J170" t="s">
-        <v>64</v>
-      </c>
-      <c r="L170" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -5407,10 +5396,10 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G171">
-        <v>4486.0586199999998</v>
+        <v>4531.9508130000004</v>
       </c>
       <c r="H171" t="s">
         <v>63</v>
@@ -5418,6 +5407,12 @@
       <c r="I171" t="s">
         <v>47</v>
       </c>
+      <c r="J171" t="s">
+        <v>64</v>
+      </c>
+      <c r="L171" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -5433,10 +5428,10 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G172">
-        <v>4229.2159490000004</v>
+        <v>4486.0586199999998</v>
       </c>
       <c r="H172" t="s">
         <v>63</v>
@@ -5459,10 +5454,10 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G173">
-        <v>4113.0237550000002</v>
+        <v>4229.2159490000004</v>
       </c>
       <c r="H173" t="s">
         <v>63</v>
@@ -5485,10 +5480,10 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G174">
-        <v>3809.3144179999999</v>
+        <v>4113.0237550000002</v>
       </c>
       <c r="H174" t="s">
         <v>63</v>
@@ -5511,10 +5506,10 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G175">
-        <v>3216.8593540000002</v>
+        <v>3809.3144179999999</v>
       </c>
       <c r="H175" t="s">
         <v>63</v>
@@ -5537,10 +5532,10 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G176">
-        <v>3081.0364030000001</v>
+        <v>3216.8593540000002</v>
       </c>
       <c r="H176" t="s">
         <v>63</v>
@@ -5563,10 +5558,10 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G177">
-        <v>3052.442098</v>
+        <v>3081.0364030000001</v>
       </c>
       <c r="H177" t="s">
         <v>63</v>
@@ -5589,10 +5584,10 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G178">
-        <v>3181.1164720000002</v>
+        <v>3052.442098</v>
       </c>
       <c r="H178" t="s">
         <v>63</v>
@@ -5615,10 +5610,10 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G179">
-        <v>3026.0556649999999</v>
+        <v>3181.1164720000002</v>
       </c>
       <c r="H179" t="s">
         <v>63</v>
@@ -5641,10 +5636,10 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G180">
-        <v>2992.6932879999999</v>
+        <v>3026.0556649999999</v>
       </c>
       <c r="H180" t="s">
         <v>63</v>
@@ -5667,10 +5662,10 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G181">
-        <v>2952.990397</v>
+        <v>2992.6932879999999</v>
       </c>
       <c r="H181" t="s">
         <v>63</v>
@@ -5693,10 +5688,10 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G182">
-        <v>2986.2752169999999</v>
+        <v>2952.990397</v>
       </c>
       <c r="H182" t="s">
         <v>63</v>
@@ -5719,10 +5714,10 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G183">
-        <v>2955.9697059999999</v>
+        <v>2986.2752169999999</v>
       </c>
       <c r="H183" t="s">
         <v>63</v>
@@ -5745,10 +5740,10 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G184">
-        <v>2966.7566470000002</v>
+        <v>2955.9697059999999</v>
       </c>
       <c r="H184" t="s">
         <v>63</v>
@@ -5771,10 +5766,10 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G185">
-        <v>2933.762999</v>
+        <v>2966.7566470000002</v>
       </c>
       <c r="H185" t="s">
         <v>63</v>
@@ -5797,10 +5792,10 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G186">
-        <v>2877.591997</v>
+        <v>2933.762999</v>
       </c>
       <c r="H186" t="s">
         <v>63</v>
@@ -5823,10 +5818,10 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G187">
-        <v>2869.6669259999999</v>
+        <v>2877.591997</v>
       </c>
       <c r="H187" t="s">
         <v>63</v>
@@ -5849,10 +5844,10 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G188">
-        <v>3096.991035</v>
+        <v>2869.6669259999999</v>
       </c>
       <c r="H188" t="s">
         <v>63</v>
@@ -5875,10 +5870,10 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G189">
-        <v>3038.1137739999999</v>
+        <v>3096.991035</v>
       </c>
       <c r="H189" t="s">
         <v>63</v>
@@ -5901,10 +5896,10 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G190">
-        <v>2987.8845059999999</v>
+        <v>3038.1137739999999</v>
       </c>
       <c r="H190" t="s">
         <v>63</v>
@@ -5927,7 +5922,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G191">
         <v>2987.8845059999999</v>
@@ -5953,10 +5948,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G192">
-        <v>2714.4870559999999</v>
+        <v>2987.8845059999999</v>
       </c>
       <c r="H192" t="s">
         <v>63</v>
@@ -5979,10 +5974,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G193">
-        <v>2681.5936729999999</v>
+        <v>2714.4870559999999</v>
       </c>
       <c r="H193" t="s">
         <v>63</v>
@@ -6005,10 +6000,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G194">
-        <v>2645.5219229999998</v>
+        <v>2681.5936729999999</v>
       </c>
       <c r="H194" t="s">
         <v>63</v>
@@ -6031,10 +6026,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G195">
-        <v>2596.2485830000001</v>
+        <v>2645.5219229999998</v>
       </c>
       <c r="H195" t="s">
         <v>63</v>
@@ -6057,10 +6052,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G196">
-        <v>2546.7514999999999</v>
+        <v>2596.2485830000001</v>
       </c>
       <c r="H196" t="s">
         <v>63</v>
@@ -6083,10 +6078,10 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G197">
-        <v>2546.3549710000002</v>
+        <v>2546.7514999999999</v>
       </c>
       <c r="H197" t="s">
         <v>63</v>
@@ -6109,10 +6104,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G198">
-        <v>2504.4505570000001</v>
+        <v>2546.3549710000002</v>
       </c>
       <c r="H198" t="s">
         <v>63</v>
@@ -6135,10 +6130,10 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G199">
-        <v>2318.2230129999998</v>
+        <v>2504.4505570000001</v>
       </c>
       <c r="H199" t="s">
         <v>63</v>
@@ -6155,13 +6150,19 @@
         <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G200">
+        <v>2318.2230129999998</v>
+      </c>
+      <c r="H200" t="s">
+        <v>63</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -6181,7 +6182,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -6201,7 +6202,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -6221,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -6241,7 +6242,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -6261,7 +6262,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6281,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6301,7 +6302,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6321,7 +6322,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6341,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6361,7 +6362,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6381,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6401,7 +6402,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6421,7 +6422,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6441,7 +6442,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6461,7 +6462,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6481,7 +6482,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6501,7 +6502,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6521,7 +6522,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6541,7 +6542,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6561,7 +6562,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6581,7 +6582,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6601,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6621,7 +6622,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6641,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6661,7 +6662,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6681,7 +6682,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6701,7 +6702,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6721,22 +6722,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228" t="s">
-        <v>66</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
-      </c>
-      <c r="J228" t="s">
-        <v>61</v>
-      </c>
-      <c r="L228" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6753,10 +6742,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>66</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
+      </c>
+      <c r="J229" t="s">
+        <v>61</v>
+      </c>
+      <c r="L229" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6767,28 +6768,16 @@
         <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>47</v>
-      </c>
-      <c r="J230" t="s">
-        <v>58</v>
-      </c>
-      <c r="L230" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6805,7 +6794,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6837,7 +6826,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6869,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6901,7 +6890,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6933,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6965,7 +6954,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6997,7 +6986,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7029,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7061,7 +7050,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7093,7 +7082,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7125,7 +7114,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7157,7 +7146,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7189,7 +7178,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7221,7 +7210,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7253,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7285,7 +7274,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7317,7 +7306,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7349,7 +7338,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7381,7 +7370,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7413,7 +7402,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7445,7 +7434,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7477,7 +7466,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7509,7 +7498,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7541,7 +7530,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7573,7 +7562,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7605,7 +7594,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7637,7 +7626,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7669,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7701,7 +7690,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7727,22 +7716,28 @@
         <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>55</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
       </c>
       <c r="J260" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="L260" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7759,13 +7754,16 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
+      </c>
+      <c r="J261" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7782,7 +7780,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.3</v>
@@ -7805,7 +7803,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.3</v>
@@ -7828,7 +7826,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.3</v>
@@ -7851,7 +7849,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.3</v>
@@ -7874,7 +7872,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.3</v>
@@ -7897,7 +7895,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.3</v>
@@ -7920,7 +7918,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.3</v>
@@ -7943,7 +7941,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.3</v>
@@ -7966,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.3</v>
@@ -7989,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.3</v>
@@ -8012,7 +8010,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.3</v>
@@ -8035,7 +8033,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.3</v>
@@ -8058,7 +8056,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.3</v>
@@ -8081,7 +8079,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.3</v>
@@ -8104,7 +8102,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.3</v>
@@ -8127,7 +8125,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.3</v>
@@ -8150,7 +8148,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.3</v>
@@ -8173,7 +8171,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.3</v>
@@ -8196,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.3</v>
@@ -8219,7 +8217,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.3</v>
@@ -8242,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.3</v>
@@ -8265,7 +8263,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.3</v>
@@ -8288,7 +8286,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.3</v>
@@ -8311,7 +8309,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.3</v>
@@ -8334,7 +8332,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.3</v>
@@ -8357,7 +8355,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.3</v>
@@ -8380,7 +8378,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.3</v>
@@ -8403,7 +8401,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.3</v>
@@ -8420,16 +8418,16 @@
         <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8449,7 +8447,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
         <v>0.05</v>
@@ -8472,7 +8470,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.05</v>
@@ -8495,7 +8493,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.05</v>
@@ -8518,7 +8516,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.05</v>
@@ -8541,7 +8539,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.05</v>
@@ -8564,7 +8562,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.05</v>
@@ -8587,7 +8585,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.05</v>
@@ -8610,7 +8608,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.05</v>
@@ -8633,7 +8631,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.05</v>
@@ -8656,7 +8654,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.05</v>
@@ -8679,7 +8677,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.05</v>
@@ -8702,7 +8700,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.05</v>
@@ -8725,7 +8723,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.05</v>
@@ -8748,7 +8746,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.05</v>
@@ -8771,7 +8769,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.05</v>
@@ -8794,7 +8792,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.05</v>
@@ -8817,7 +8815,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.05</v>
@@ -8840,7 +8838,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.05</v>
@@ -8863,7 +8861,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.05</v>
@@ -8886,7 +8884,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.05</v>
@@ -8909,7 +8907,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.05</v>
@@ -8932,7 +8930,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.05</v>
@@ -8955,7 +8953,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.05</v>
@@ -8978,7 +8976,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.05</v>
@@ -9001,7 +8999,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.05</v>
@@ -9024,7 +9022,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.05</v>
@@ -9047,7 +9045,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.05</v>
@@ -9070,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.05</v>
@@ -9093,7 +9091,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.05</v>
@@ -9102,11 +9100,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.05</v>
+      </c>
+      <c r="I320" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/elec/CHE_convelec_onshorewind.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_onshorewind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5D380-17F7-5842-92A6-96143B8F482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45475691-0481-1540-98D9-1CD059161004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,26 +440,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,26 +475,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,8 +654,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7757,7 +7723,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
